--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -69,7 +72,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,10 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>HK_R_acc_G</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -72,7 +69,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -72,7 +81,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -81,7 +87,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -87,7 +90,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -90,7 +96,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -96,7 +99,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -99,247 +102,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>76.188299817184642</v>
+        <v>76.247139588100694</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.868372943327245</v>
+        <v>75.926773455377571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>73.948811700182816</v>
+        <v>74.004576659038904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.542961608775144</v>
+        <v>74.599542334096114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>74.588665447897625</v>
+        <v>74.645308924485121</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>75.868372943327245</v>
+        <v>75.926773455377571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>74.497257769652649</v>
+        <v>74.553775743707092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.457038391224856</v>
+        <v>75.514874141876433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.360146252285205</v>
+        <v>74.416475972540042</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.360146252285205</v>
+        <v>74.416475972540042</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.228519195612435</v>
+        <v>75.286041189931353</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>75.685557586837291</v>
+        <v>75.743707093821513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.497257769652649</v>
+        <v>74.553775743707092</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75</v>
+        <v>75.057208237986274</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.771480804387565</v>
+        <v>74.828375286041194</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.451553930530167</v>
+        <v>74.508009153318085</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.731261425959786</v>
+        <v>75.789473684210535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.776965265082268</v>
+        <v>75.835240274599542</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.513711151736743</v>
+        <v>77.574370709382151</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>75.274223034734916</v>
+        <v>75.331807780320375</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.650822669104201</v>
+        <v>77.711670480549202</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>74.908592321755023</v>
+        <v>74.96567505720823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>74.634369287020107</v>
+        <v>74.691075514874143</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>74.771480804387565</v>
+        <v>74.828375286041194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.542961608775144</v>
+        <v>74.599542334096114</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>74.497257769652649</v>
+        <v>74.553775743707092</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.223034734917732</v>
+        <v>74.279176201373005</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.365630712979893</v>
+        <v>75.42334096109839</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>74.542961608775144</v>
+        <v>74.599542334096114</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>74.81718464351006</v>
+        <v>74.874141876430215</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>73.948811700182816</v>
+        <v>74.004576659038904</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.177330895795251</v>
+        <v>74.233409610983983</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>73.948811700182816</v>
+        <v>74.004576659038904</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>74.81718464351006</v>
+        <v>74.874141876430215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.045703839122496</v>
+        <v>75.102974828375295</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>81.032906764168189</v>
+        <v>81.098398169336377</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>74.360146252285205</v>
+        <v>74.416475972540042</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>74.771480804387565</v>
+        <v>74.828375286041194</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>75.685557586837291</v>
+        <v>75.743707093821513</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.725776965265084</v>
+        <v>74.782608695652172</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.18281535648994</v>
+        <v>75.240274599542332</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.908592321755023</v>
+        <v>74.96567505720823</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>74.954296160877504</v>
+        <v>75.011441647597252</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.274223034734916</v>
+        <v>75.331807780320375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>73.948811700182816</v>
+        <v>74.004576659038904</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.223034734917732</v>
+        <v>74.279176201373005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>76.051188299817184</v>
+        <v>76.109839816933629</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.588665447897625</v>
+        <v>74.645308924485121</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -102,247 +108,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>76.247139588100694</v>
+        <v>79.294478527607353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>75.926773455377571</v>
+        <v>78.834355828220865</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>74.004576659038904</v>
+        <v>75.920245398773005</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>74.599542334096114</v>
+        <v>76.99386503067484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>74.645308924485121</v>
+        <v>76.917177914110425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>75.926773455377571</v>
+        <v>79.064417177914109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>74.553775743707092</v>
+        <v>76.763803680981596</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>75.514874141876433</v>
+        <v>76.840490797546011</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>74.416475972540042</v>
+        <v>76.303680981595093</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>74.416475972540042</v>
+        <v>76.303680981595093</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>75.286041189931353</v>
+        <v>77.760736196319016</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>75.743707093821513</v>
+        <v>77.607361963190186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>74.553775743707092</v>
+        <v>77.607361963190186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>75.057208237986274</v>
+        <v>77.607361963190186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>74.828375286041194</v>
+        <v>77.530674846625772</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>74.508009153318085</v>
+        <v>76.457055214723923</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>75.789473684210535</v>
+        <v>78.604294478527606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>75.835240274599542</v>
+        <v>78.604294478527606</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>77.574370709382151</v>
+        <v>80.521472392638032</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>75.331807780320375</v>
+        <v>77.147239263803684</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>77.711670480549202</v>
+        <v>80.598159509202446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>74.96567505720823</v>
+        <v>78.144171779141104</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>74.691075514874143</v>
+        <v>77.914110429447859</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>74.828375286041194</v>
+        <v>77.914110429447859</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>74.599542334096114</v>
+        <v>76.457055214723923</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>74.553775743707092</v>
+        <v>76.457055214723923</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>74.279176201373005</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.42334096109839</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>74.599542334096114</v>
+        <v>75.843558282208591</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>74.874141876430215</v>
+        <v>75.99693251533742</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>74.004576659038904</v>
+        <v>75.613496932515332</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>74.233409610983983</v>
+        <v>76.150306748466249</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>74.004576659038904</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>74.874141876430215</v>
+        <v>75.843558282208591</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.102974828375295</v>
+        <v>75.920245398773005</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>81.098398169336377</v>
+        <v>82.898773006134974</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>74.416475972540042</v>
+        <v>75.920245398773005</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>74.828375286041194</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>75.743707093821513</v>
+        <v>77.914110429447859</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>74.782608695652172</v>
+        <v>75.690184049079761</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>75.240274599542332</v>
+        <v>76.457055214723923</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>74.96567505720823</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.011441647597252</v>
+        <v>75.766871165644162</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>75.331807780320375</v>
+        <v>76.303680981595093</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>74.004576659038904</v>
+        <v>75.690184049079761</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>74.279176201373005</v>
+        <v>75.306748466257673</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>76.109839816933629</v>
+        <v>76.073619631901849</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>74.645308924485121</v>
+        <v>75.383435582822088</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -100,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A50"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.7109375" customWidth="true"/>
@@ -108,247 +150,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>79.294478527607353</v>
+        <v>81.501057082452434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>78.834355828220865</v>
+        <v>78.752642706131084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>75.920245398773005</v>
+        <v>79.492600422832979</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>76.99386503067484</v>
+        <v>77.167019027484145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>76.917177914110425</v>
+        <v>83.826638477801268</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>79.064417177914109</v>
+        <v>87.315010570824526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>76.763803680981596</v>
+        <v>83.192389006342495</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>76.840490797546011</v>
+        <v>83.086680761099359</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>76.303680981595093</v>
+        <v>83.192389006342495</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>76.303680981595093</v>
+        <v>83.298097251585617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>77.760736196319016</v>
+        <v>86.892177589852011</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>77.607361963190186</v>
+        <v>86.786469344608875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>77.607361963190186</v>
+        <v>83.509513742071888</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>77.607361963190186</v>
+        <v>83.61522198731501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>77.530674846625772</v>
+        <v>83.509513742071888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>76.457055214723923</v>
+        <v>83.720930232558146</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>78.604294478527606</v>
+        <v>87.20930232558139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>78.604294478527606</v>
+        <v>87.20930232558139</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>80.521472392638032</v>
+        <v>79.598308668076115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>77.147239263803684</v>
+        <v>72.41014799154334</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>80.598159509202446</v>
+        <v>79.704016913319236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>78.144171779141104</v>
+        <v>79.175475687103585</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>77.914110429447859</v>
+        <v>80.021141649048616</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>77.914110429447859</v>
+        <v>79.281183932346721</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>76.457055214723923</v>
+        <v>83.61522198731501</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>76.457055214723923</v>
+        <v>83.61522198731501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>75.766871165644162</v>
+        <v>84.143763213530647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>75.766871165644162</v>
+        <v>84.883720930232556</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>75.843558282208591</v>
+        <v>84.883720930232556</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>75.99693251533742</v>
+        <v>85.306553911205071</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>75.613496932515332</v>
+        <v>74.524312896405917</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>76.150306748466249</v>
+        <v>80.655391120507403</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>75.766871165644162</v>
+        <v>80.866807610993661</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>75.843558282208591</v>
+        <v>76.849894291754765</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>75.920245398773005</v>
+        <v>76.955602536997887</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>82.898773006134974</v>
+        <v>80.655391120507403</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>75.920245398773005</v>
+        <v>76.849894291754765</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>75.766871165644162</v>
+        <v>76.744186046511629</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>77.914110429447859</v>
+        <v>79.704016913319236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>75.690184049079761</v>
+        <v>83.720930232558146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>76.457055214723923</v>
+        <v>82.980972515856237</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>75.766871165644162</v>
+        <v>83.509513742071888</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>75.766871165644162</v>
+        <v>82.663847780126858</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>76.303680981595093</v>
+        <v>82.135306553911207</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>75.690184049079761</v>
+        <v>82.135306553911207</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>75.306748466257673</v>
+        <v>82.875264270613101</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>76.073619631901849</v>
+        <v>77.061310782241009</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>75.383435582822088</v>
+        <v>82.980972515856237</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>83.192389006342495</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -150,7 +153,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -153,252 +159,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>81.501057082452434</v>
+        <v>52.871024734982328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>78.752642706131084</v>
+        <v>52.871024734982328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>79.492600422832979</v>
+        <v>52.915194346289752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>77.167019027484145</v>
+        <v>49.911660777385158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>83.826638477801268</v>
+        <v>50.353356890459366</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>87.315010570824526</v>
+        <v>51.32508833922261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>83.192389006342495</v>
+        <v>54.196113074204945</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>83.086680761099359</v>
+        <v>54.946996466431095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>83.192389006342495</v>
+        <v>54.284452296819786</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>83.298097251585617</v>
+        <v>54.328621908127204</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>86.892177589852011</v>
+        <v>59.717314487632514</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>86.786469344608875</v>
+        <v>59.540636042402831</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>83.509513742071888</v>
+        <v>53.710247349823327</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>83.61522198731501</v>
+        <v>54.593639575971729</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>83.509513742071888</v>
+        <v>53.975265017667837</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>83.720930232558146</v>
+        <v>53.798586572438168</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>87.20930232558139</v>
+        <v>55.21201413427562</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>87.20930232558139</v>
+        <v>55.079505300353361</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>79.598308668076115</v>
+        <v>53.312720848056536</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>72.41014799154334</v>
+        <v>53.091872791519435</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>79.704016913319236</v>
+        <v>53.445229681978802</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>79.175475687103585</v>
+        <v>56.625441696113079</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>80.021141649048616</v>
+        <v>61.528268551236756</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>79.281183932346721</v>
+        <v>61.130742049469966</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>83.61522198731501</v>
+        <v>54.284452296819786</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>83.61522198731501</v>
+        <v>54.284452296819786</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>84.143763213530647</v>
+        <v>54.593639575971729</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>84.883720930232556</v>
+        <v>61.439929328621915</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>84.883720930232556</v>
+        <v>60.821554770318023</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>85.306553911205071</v>
+        <v>54.372791519434628</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>74.524312896405917</v>
+        <v>56.71378091872792</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>80.655391120507403</v>
+        <v>52.340989399293292</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>80.866807610993661</v>
+        <v>52.561837455830386</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>76.849894291754765</v>
+        <v>55.697879858657238</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>76.955602536997887</v>
+        <v>56.051236749116605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>80.655391120507403</v>
+        <v>58.61307420494699</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>76.849894291754765</v>
+        <v>56.537102473498237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>76.744186046511629</v>
+        <v>56.139575971731446</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>79.704016913319236</v>
+        <v>57.243816254416956</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>83.720930232558146</v>
+        <v>55.344522968197886</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>82.980972515856237</v>
+        <v>55.123674911660778</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>83.509513742071888</v>
+        <v>55.521201413427555</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>82.663847780126858</v>
+        <v>54.196113074204945</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>82.135306553911207</v>
+        <v>54.372791519434628</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>82.135306553911207</v>
+        <v>53.533568904593643</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>82.875264270613101</v>
+        <v>54.063604240282679</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>77.061310782241009</v>
+        <v>52.606007067137803</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>82.980972515856237</v>
+        <v>54.107773851590103</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>83.192389006342495</v>
+        <v>50.706713780918733</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -159,252 +171,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>52.871024734982328</v>
+        <v>52.546093064091302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>52.871024734982328</v>
+        <v>52.546093064091302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>52.915194346289752</v>
+        <v>52.589991220368745</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>49.911660777385158</v>
+        <v>49.60491659350307</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>50.353356890459366</v>
+        <v>50.043898156277436</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>51.32508833922261</v>
+        <v>51.009657594381039</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>54.196113074204945</v>
+        <v>54.302019315188765</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>54.946996466431095</v>
+        <v>55.048287971905182</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>54.284452296819786</v>
+        <v>54.38981562774363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>54.328621908127204</v>
+        <v>54.433713784021073</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>59.717314487632514</v>
+        <v>59.350307287093941</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>59.540636042402831</v>
+        <v>59.174714661984197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>53.710247349823327</v>
+        <v>53.819139596136964</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>54.593639575971729</v>
+        <v>54.697102721685688</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>53.975265017667837</v>
+        <v>54.082528533801579</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>53.798586572438168</v>
+        <v>53.46795434591747</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>55.21201413427562</v>
+        <v>54.872695346795432</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>55.079505300353361</v>
+        <v>54.741000877963131</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>53.312720848056536</v>
+        <v>53.424056189640034</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>53.091872791519435</v>
+        <v>53.204565408252854</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>53.445229681978802</v>
+        <v>53.555750658472348</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>56.625441696113079</v>
+        <v>56.277436347673394</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>61.528268551236756</v>
+        <v>61.150131694468833</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>61.130742049469966</v>
+        <v>60.755048287971903</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>54.284452296819786</v>
+        <v>53.950834064969264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>54.284452296819786</v>
+        <v>53.950834064969264</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>54.593639575971729</v>
+        <v>54.258121158911322</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>61.439929328621915</v>
+        <v>61.062335381913954</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>60.821554770318023</v>
+        <v>60.447761194029844</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>54.372791519434628</v>
+        <v>54.038630377524143</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>56.71378091872792</v>
+        <v>56.365232660228273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>52.340989399293292</v>
+        <v>52.019315188762072</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>52.561837455830386</v>
+        <v>52.238805970149251</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>55.697879858657238</v>
+        <v>55.355575065847226</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>56.051236749116605</v>
+        <v>55.706760316066728</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>58.61307420494699</v>
+        <v>58.691834942932395</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>56.537102473498237</v>
+        <v>56.189640035118529</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>56.139575971731446</v>
+        <v>55.794556628621592</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>57.243816254416956</v>
+        <v>56.892010535557503</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>55.344522968197886</v>
+        <v>55.004389815627739</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>55.123674911660778</v>
+        <v>54.784899034240567</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>55.521201413427555</v>
+        <v>55.179982440737483</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>54.196113074204945</v>
+        <v>53.8630377524144</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>54.372791519434628</v>
+        <v>54.038630377524143</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>53.533568904593643</v>
+        <v>53.204565408252854</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>54.063604240282679</v>
+        <v>53.731343283582092</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>52.606007067137803</v>
+        <v>52.282704126426694</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>54.107773851590103</v>
+        <v>53.775241439859521</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>50.706713780918733</v>
+        <v>50.39508340649693</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -171,7 +174,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -174,7 +177,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -177,7 +180,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -180,252 +183,252 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>52.546093064091302</v>
+        <v>70.782208588957047</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>52.546093064091302</v>
+        <v>68.788343558282207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>52.589991220368745</v>
+        <v>65.874233128834362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>49.60491659350307</v>
+        <v>65.030674846625772</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>50.043898156277436</v>
+        <v>69.785276073619627</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>51.009657594381039</v>
+        <v>72.315950920245399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>54.302019315188765</v>
+        <v>69.401840490797554</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>55.048287971905182</v>
+        <v>69.401840490797554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>54.38981562774363</v>
+        <v>69.401840490797554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>54.433713784021073</v>
+        <v>69.478527607361968</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>59.350307287093941</v>
+        <v>71.395705521472394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>59.174714661984197</v>
+        <v>71.165644171779135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>53.819139596136964</v>
+        <v>70.475460122699388</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>54.697102721685688</v>
+        <v>70.552147239263803</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>54.082528533801579</v>
+        <v>70.475460122699388</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>53.46795434591747</v>
+        <v>69.248466257668724</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>54.872695346795432</v>
+        <v>71.779141104294482</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>54.741000877963131</v>
+        <v>71.779141104294482</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>53.424056189640034</v>
+        <v>70.168711656441715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>53.204565408252854</v>
+        <v>61.579754601227002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>53.555750658472348</v>
+        <v>70.245398773006144</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>56.277436347673394</v>
+        <v>65.874233128834362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>61.150131694468833</v>
+        <v>66.257668711656436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>60.755048287971903</v>
+        <v>65.950920245398777</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>53.950834064969264</v>
+        <v>69.708588957055213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>53.950834064969264</v>
+        <v>69.708588957055213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>54.258121158911322</v>
+        <v>69.401840490797554</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>61.062335381913954</v>
+        <v>69.708588957055213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>60.447761194029844</v>
+        <v>69.785276073619627</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>54.038630377524143</v>
+        <v>70.245398773006144</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>56.365232660228273</v>
+        <v>62.116564417177912</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>52.019315188762072</v>
+        <v>66.641104294478524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>52.238805970149251</v>
+        <v>66.871165644171782</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>55.355575065847226</v>
+        <v>63.880368098159515</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>55.706760316066728</v>
+        <v>63.957055214723923</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>58.691834942932395</v>
+        <v>71.395705521472394</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>56.189640035118529</v>
+        <v>63.880368098159515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>55.794556628621592</v>
+        <v>63.803680981595093</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>56.892010535557503</v>
+        <v>65.950920245398777</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>55.004389815627739</v>
+        <v>68.941717791411037</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>54.784899034240567</v>
+        <v>69.171779141104295</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>55.179982440737483</v>
+        <v>68.865030674846622</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>53.8630377524144</v>
+        <v>68.251533742331276</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>54.038630377524143</v>
+        <v>68.481595092024534</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>53.204565408252854</v>
+        <v>67.791411042944787</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>53.731343283582092</v>
+        <v>68.481595092024534</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>52.282704126426694</v>
+        <v>64.647239263803684</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>53.775241439859521</v>
+        <v>68.634969325153378</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>50.39508340649693</v>
+        <v>68.558282208588963</v>
       </c>
     </row>
   </sheetData>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -183,247 +213,247 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>70.782208588957047</v>
+        <v>47.668955547524391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>68.788343558282207</v>
+        <v>47.668955547524391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>65.874233128834362</v>
+        <v>46.114925912540656</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>65.030674846625772</v>
+        <v>44.091073364654861</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>69.785276073619627</v>
+        <v>44.452475605348752</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>72.315950920245399</v>
+        <v>45.247560534875312</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>69.401840490797554</v>
+        <v>47.524394651246837</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>69.401840490797554</v>
+        <v>48.138778460426458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>69.401840490797554</v>
+        <v>47.596675099385614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>69.478527607361968</v>
+        <v>47.632815323455006</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>71.395705521472394</v>
+        <v>51.680520419226596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>71.165644171779135</v>
+        <v>51.535959522949035</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>70.475460122699388</v>
+        <v>47.45211420310806</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>70.552147239263803</v>
+        <v>48.174918684495843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>70.475460122699388</v>
+        <v>47.668955547524391</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>69.248466257668724</v>
+        <v>46.946151066136608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>71.779141104294482</v>
+        <v>48.102638236357066</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>71.779141104294482</v>
+        <v>47.994217564148897</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>70.168711656441715</v>
+        <v>48.391760028912181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>61.579754601227002</v>
+        <v>46.620889049512101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>70.245398773006144</v>
+        <v>48.50018070112035</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>65.874233128834362</v>
+        <v>49.222985182508133</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>66.257668711656436</v>
+        <v>53.234550054210338</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>65.950920245398777</v>
+        <v>52.909288037585831</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>69.708588957055213</v>
+        <v>47.560534875316229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>69.708588957055213</v>
+        <v>47.560534875316229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>69.401840490797554</v>
+        <v>47.488254427177452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>69.708588957055213</v>
+        <v>53.089989157932784</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>69.785276073619627</v>
+        <v>52.620166245030717</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>70.245398773006144</v>
+        <v>47.415973979038675</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>62.116564417177912</v>
+        <v>49.222985182508133</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>66.641104294478524</v>
+        <v>45.681243223707988</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>66.871165644171782</v>
+        <v>45.861944344054933</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>63.880368098159515</v>
+        <v>48.355619804842789</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>63.957055214723923</v>
+        <v>48.644741597397903</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>71.395705521472394</v>
+        <v>52.728586917238886</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>63.880368098159515</v>
+        <v>49.042284062161187</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>63.803680981595093</v>
+        <v>48.717022045536687</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>65.950920245398777</v>
+        <v>49.620527647271409</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>68.941717791411037</v>
+        <v>48.102638236357066</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>69.171779141104295</v>
+        <v>48.24719913263462</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>68.865030674846622</v>
+        <v>48.24719913263462</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>68.251533742331276</v>
+        <v>47.162992410552945</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>68.481595092024534</v>
+        <v>47.632815323455006</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>67.791411042944787</v>
+        <v>46.620889049512101</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>68.481595092024534</v>
+        <v>47.090711962414169</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>64.647239263803684</v>
+        <v>45.93422479219371</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>68.634969325153378</v>
+        <v>47.162992410552945</v>
       </c>
     </row>
     <row r="50">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -213,7 +225,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+  <si>
+    <t>HK_R_acc_G</t>
+  </si>
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -225,7 +228,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="54">
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -180,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -219,11 +219,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="54">
   <si>
     <t>HK_R_acc_G</t>
   </si>

--- a/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
+++ b/Thresholding/Global_Threshold/HK_R_acc_G_1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="1">
   <si>
     <t>HK_R_acc_G</t>
   </si>
@@ -77,242 +77,242 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>47.668955547524391</v>
+        <v>93.50307287093942</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>47.668955547524391</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>46.114925912540656</v>
+        <v>93.678665496049163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>44.091073364654861</v>
+        <v>93.371378402107112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>44.452475605348752</v>
+        <v>93.064091308165047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>45.247560534875312</v>
+        <v>93.371378402107112</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>47.524394651246837</v>
+        <v>93.678665496049163</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>48.138778460426458</v>
+        <v>93.854258121158907</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>47.596675099385614</v>
+        <v>93.678665496049163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>47.632815323455006</v>
+        <v>93.766461808604035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>51.680520419226596</v>
+        <v>93.854258121158907</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>51.535959522949035</v>
+        <v>93.590869183494291</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>47.45211420310806</v>
+        <v>93.415276558384548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>48.174918684495843</v>
+        <v>93.415276558384548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>47.668955547524391</v>
+        <v>93.459174714661984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>46.946151066136608</v>
+        <v>94.600526777875331</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>48.102638236357066</v>
+        <v>94.600526777875331</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>47.994217564148897</v>
+        <v>94.644424934152767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>48.391760028912181</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>46.620889049512101</v>
+        <v>93.590869183494291</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>48.50018070112035</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>49.222985182508133</v>
+        <v>94.117647058823522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>53.234550054210338</v>
+        <v>93.810359964881471</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>52.909288037585831</v>
+        <v>93.590869183494291</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>47.560534875316229</v>
+        <v>93.810359964881471</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>47.560534875316229</v>
+        <v>93.50307287093942</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>47.488254427177452</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>53.089989157932784</v>
+        <v>93.942054433713778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>52.620166245030717</v>
+        <v>94.424934152765587</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>47.415973979038675</v>
+        <v>94.249341527655844</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>49.222985182508133</v>
+        <v>93.50307287093942</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>45.681243223707988</v>
+        <v>93.371378402107112</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>45.861944344054933</v>
+        <v>93.590869183494291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>48.355619804842789</v>
+        <v>93.678665496049163</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>48.644741597397903</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>52.728586917238886</v>
+        <v>84.899034240561903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>49.042284062161187</v>
+        <v>93.590869183494291</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>48.717022045536687</v>
+        <v>93.722563652326613</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>49.620527647271409</v>
+        <v>93.898156277436357</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>48.102638236357066</v>
+        <v>93.634767339771727</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>48.24719913263462</v>
+        <v>93.546971027216856</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>48.24719913263462</v>
+        <v>93.546971027216856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>47.162992410552945</v>
+        <v>93.50307287093942</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>47.632815323455006</v>
+        <v>93.546971027216856</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>46.620889049512101</v>
+        <v>93.371378402107112</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>47.090711962414169</v>
+        <v>93.766461808604035</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>45.93422479219371</v>
+        <v>84.240561896400351</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>47.162992410552945</v>
+        <v>93.810359964881471</v>
       </c>
     </row>
   </sheetData>
